--- a/etc/documentum/2022MBO_최종/역량평가_장만규.xlsx
+++ b/etc/documentum/2022MBO_최종/역량평가_장만규.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\documentum\2022MBO_최종\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8496" windowHeight="6732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8490" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>역량유형</t>
   </si>
@@ -58,111 +63,152 @@
   </si>
   <si>
     <t>고객감동 실현을 위해 내·외부 고객을 명확히 인식하고 최고의 제품과 최상의 서비스를 제공하도록 고객을 기준으로 생각하고 업무를 수행한다</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>도전적실행</t>
+  </si>
+  <si>
+    <t>현실에 안주하지 않고 새로운 가능성에 도전하며, ‘할 수 있다’는 열정과 창의적 사고로 반드시 목표를 달성한다</t>
+  </si>
+  <si>
+    <t>소통과협력</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회사 전체 관점에서의 시너지 효과 창출을 위해 상호 신뢰관계를 바탕으로 타 부문 및 협력사와 방향성을 공유하고 적극적으로 협력한다 </t>
+  </si>
+  <si>
+    <t>인재존중</t>
+  </si>
+  <si>
+    <t>각 구성원들의 마음가짐과 역량이 회사의 발전에 기여함을 믿고 서로 존중하고 공평하게 대하며 최대의 역량을 발휘하도록 노력하고 배려한다</t>
+  </si>
+  <si>
+    <t>글로벌지향</t>
+  </si>
+  <si>
+    <t>글로벌 기업시민으로서 존경 받기 위해 문화와 관행의 다양성을 존중하며, 세계 최고 수준의 글로벌 역량과 전문성을 개발한다</t>
+  </si>
+  <si>
+    <t>직무역량</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>문제해결</t>
+  </si>
+  <si>
+    <t>업무수행 시 발생하는 문제에 대한 정확한 원인을 파악하고, 적기에 문제를 해결하는 능력</t>
+  </si>
+  <si>
+    <t>현재 상황을 객관적이고 세밀하게 분석하여 문제의 성격과 원인을 규명함
+효율적이고 신속한 문제해결을 위해 유관조직과 적극적으로 협의함
+해당 문제에 대해 구체적이고 실현 가능한 해결안을 제시함</t>
+  </si>
+  <si>
+    <t>의사결정/판단력</t>
+  </si>
+  <si>
+    <t>정보와 상황을 분석하여, 체계적 논리와 근거에 따라 합리적으로 판단할 수 있는 능력</t>
+  </si>
+  <si>
+    <t>판단에 영향을 미칠 수 있는 다양한 정보를 종합하여 합리적 근거를 마련함
+해당 사안이 미치는 긍정적, 부정적 측면을 파악하여 적절한 의사결정을 제시함</t>
+  </si>
+  <si>
+    <t>책임의식</t>
+  </si>
+  <si>
+    <t>조직의 목표를 달성하기 위해 책임감과 주인의식을 가지고, 끝까지 업무를 추진하여 완결하는 자세</t>
+  </si>
+  <si>
+    <t>본인의 역할이 조직 및 팀원들에게 미칠 수 있는 영향을 이해하여 업무를 수행함
+본인의 업무범위가 아니더라도, 업무 완수를 위해 도움을 주고 받음</t>
+  </si>
+  <si>
+    <t>프로젝트 관리</t>
+  </si>
+  <si>
+    <t>프로젝트의 성공적인 수행을 위하여 가용한 자원을 적절히 배분하고 관리하여 일정대로 추진하는 능력</t>
+  </si>
+  <si>
+    <t>프로젝트 업무 일정을 준수하고 맡은 업무의 진행에 차질이 생기지 않도록 일정을 조정함
+프로젝트에 투입된 자원을 효과적으로 활용하고 유기적 관계로 업무를 수행함
+일정 내 요구 수준에 적합한 결과를 생산하기 위하여 노력함</t>
   </si>
   <si>
     <t>□내·외부 고객이 누구인지 명확히 이해하고 고객의 요구에 대한 구체적인 정보를 파악한다.
 □맡은 업무의 질적 수준을 지속적으로 점검하고 실무적으로 가능한 최선의 대안을 제시한다.
 □고객의 입장과 눈높이에 맞게 일을 처리하며 불만사항은 최대한 신속하게 대응한다.
 □고객 특성에 따라 관계 형성 및 유지 방법을 이해하고 이를 업무에 적용한다.</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>도전적실행</t>
-  </si>
-  <si>
-    <t>현실에 안주하지 않고 새로운 가능성에 도전하며, ‘할 수 있다’는 열정과 창의적 사고로 반드시 목표를 달성한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□자신의 일을 반드시 해내겠다는 책임의식을 가지고 일한다.
 □다른 사람이 일을 시키지 않더라도 필요한 업무는 자발적으로 찾아 수행한다.
 □개선이 필요한 사항을 파악해서 개선 방안을 계속 제안해 본다.
 □회사업무가 효율적으로 추진될 수 있도록 항상 신속하고 충실하게 서포트한다.</t>
-  </si>
-  <si>
-    <t>소통과협력</t>
-  </si>
-  <si>
-    <t xml:space="preserve">회사 전체 관점에서의 시너지 효과 창출을 위해 상호 신뢰관계를 바탕으로 타 부문 및 협력사와 방향성을 공유하고 적극적으로 협력한다 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□타인/타 부서와 네트워크 구축을 위해 적극적으로 노력한다.
 □동료 및 타 부서의 업무에 항상 관심을 가지며, 업무 협조 요청 시 타 부서의 여건을 고려한다.
 □부서 이기주의를 탈피하고 유관부서와의 협력에 적극적으로 참여한다.
 □회사의 한 구성원으로서 자신을 인식하고, 대외적인 업무 수행 시에는 협력업체와는 성실하고 투명하게 업무를 처리한다.</t>
-  </si>
-  <si>
-    <t>인재존중</t>
-  </si>
-  <si>
-    <t>각 구성원들의 마음가짐과 역량이 회사의 발전에 기여함을 믿고 서로 존중하고 공평하게 대하며 최대의 역량을 발휘하도록 노력하고 배려한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□동료 간 예의와 직장 예절을 지킨다.
 □공정한 평가에 기반한 성과와 보상에 대한 차등을 인정한다.
 □자신의 업무분야에 대해 끊임없이 탐구하고 본인에게 적합한 자기개발 방식을 발굴하여 실천한다.
 □업무와 관련된 경험들을 계속해서 쌓아 나가고 자신이 가진 역량을 소신껏 발휘한다.</t>
-  </si>
-  <si>
-    <t>글로벌지향</t>
-  </si>
-  <si>
-    <t>글로벌 기업시민으로서 존경 받기 위해 문화와 관행의 다양성을 존중하며, 세계 최고 수준의 글로벌 역량과 전문성을 개발한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□나와 다른 행동에 대해 문화와 배경을 고려하여 적극적으로 이해하려는 자세를 가진다.
 □담당 업무의 글로벌 트렌드에 대한 이해를 바탕으로 관련 최신 정보와 지식을 습득하여 업무에 활용한다.
 □업무 수행과 관련된 법규와 규정을 명확히 이해하고 이를 철저히 준수한다.
 □인류 및 지역사회에서 회사와 나의 역할과 책임을 명확히 인식하고 그에 따른 책임과 의무를 다한다.</t>
-  </si>
-  <si>
-    <t>직무역량</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>문제해결</t>
-  </si>
-  <si>
-    <t>업무수행 시 발생하는 문제에 대한 정확한 원인을 파악하고, 적기에 문제를 해결하는 능력</t>
-  </si>
-  <si>
-    <t>현재 상황을 객관적이고 세밀하게 분석하여 문제의 성격과 원인을 규명함
-효율적이고 신속한 문제해결을 위해 유관조직과 적극적으로 협의함
-해당 문제에 대해 구체적이고 실현 가능한 해결안을 제시함</t>
-  </si>
-  <si>
-    <t>의사결정/판단력</t>
-  </si>
-  <si>
-    <t>정보와 상황을 분석하여, 체계적 논리와 근거에 따라 합리적으로 판단할 수 있는 능력</t>
-  </si>
-  <si>
-    <t>판단에 영향을 미칠 수 있는 다양한 정보를 종합하여 합리적 근거를 마련함
-해당 사안이 미치는 긍정적, 부정적 측면을 파악하여 적절한 의사결정을 제시함</t>
-  </si>
-  <si>
-    <t>책임의식</t>
-  </si>
-  <si>
-    <t>조직의 목표를 달성하기 위해 책임감과 주인의식을 가지고, 끝까지 업무를 추진하여 완결하는 자세</t>
-  </si>
-  <si>
-    <t>본인의 역할이 조직 및 팀원들에게 미칠 수 있는 영향을 이해하여 업무를 수행함
-본인의 업무범위가 아니더라도, 업무 완수를 위해 도움을 주고 받음</t>
-  </si>
-  <si>
-    <t>프로젝트 관리</t>
-  </si>
-  <si>
-    <t>프로젝트의 성공적인 수행을 위하여 가용한 자원을 적절히 배분하고 관리하여 일정대로 추진하는 능력</t>
-  </si>
-  <si>
-    <t>프로젝트 업무 일정을 준수하고 맡은 업무의 진행에 차질이 생기지 않도록 일정을 조정함
-프로젝트에 투입된 자원을 효과적으로 활용하고 유기적 관계로 업무를 수행함
-일정 내 요구 수준에 적합한 결과를 생산하기 위하여 노력함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공적인 회의도 중요하지만, 실제 업무가 원활히 진행되기 위해서는 비공식적인 의견교환과 정보교환이 굉장히 중요하다. 회의에서 결정된 사항을 더 구체적으로 진행하기 위해서, 내가 가진 정보와 하고자 하는 진행 방향을 적극적으로 공유하면서 협업 상대와 조화로운 소통을 할 수 있었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건축 심화세미나를 하면서, 자칫하면 한명의 주도로 다른 참여자들이 열의를 잃는 경우가 생기지 않도록 다른 참가자들과 의사 결정 단계마다 허심탄회한 토론을 많이 가졌다고 자평한다. 그렇게 함으로써 그룹 내부적으로 강한 결속력을 가지며 서로 존중하며 세미나 활동을 이어갈 수 있었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 3D모델 기반 공정(4D), 공사비(5D) 관리 시스템 구축 과제'를 수행하면서 가장 중요하게 여겼던 점은, 이 과제가 배관 설계, 전기 설계, 건축 설계, 공정팀이 함께 협업하는 과제라는 점이었다. 따라서 통합 모델링으로 어떤 방식의 공정 검토가 가능하며, 그것을 위해 원 모델링 파일에서 어떤 매개변수 정보가 넘어와야하는지에 대한 예시를 실제로 공유하는 과정이 중요했다. 매번 회의 때 다루려는 주제에 대한 예시를 보여주며 이해와 공감을 돕기 위해 노력했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM 관련 개발 활동을 하다보면 해외의 정보들을 활용하는 것이 절실할 때가 있다. 해외로부터 나오는 최신 정보들을 습득해가면서 BIM 프로세스 자체의 꾸준한 개선을 도모하고 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부재 해석 프로그램을 파이썬으로 작성하는 과정에서, 필요한 기능들을 클래스화 하여 작성했던 단계가 있었다. 작성이 직관적이고 내용 정리가 쉽다는 장점은 있었으나, 코드 사용 단계에서는 적용방법이 다소 조잡하고, 다양한 아웃풋을 만들기 위한 조합이 어렵다는 것을 분석했다. 문제점을 파악한 이후에 단점을 보완할 수 있는 다른 방법론을 스터디 한 후, 함수형 프로그래밍을 도입해서 상황에 유연하게 대처할 수 있는 코드 기반을 마련할 수 있었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나모로 작성된 프로그램들을 검토하던 중, 각 프로그램이 다루는 스콥의 영역이 소규모 이므로, 지금과 같은 방식으로는 프로그램의 대규모화가 어렵다고 판단했다. 그래서 다이나모 프로그램을 축약하는 방법론을 고민한 끝에, 파이썬 코드로 축약하는 방법을 선택하고, 재사용성과 압축율을 동시에 달성할 수 있었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡해서 어려워 보이는 과제라도, 목적을 세분화 하고, 그 하위목적을 다시 세분화 해서 분석하다보면 반드시 솔루션을 도출할 수 있다고 생각한다. '통합 3D모델 기반 공정(4D), 공사비(5D) 관리 시스템 구축 과제'를 수행하면서도, 어떻게 하면 서로 다른 분야의 파일들을 한 플랫폼에 모아서 검토를 수행할 수 있는지에 대한 대답으로 단계별 프로세스를 제시하고, 각 단계마다 마련되어야 할 데이터 입력 기준을 확보하는데 힘썼다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D기반에서 BIM기반으로 플랜트건축팀 업무방식 전환 촉진 목표를 위해서 팀 내부에서 발생하는 다양한 형식과 내용의 Revit, BIM 문의에 꾸준히 대응하고 자료를 제공하고있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 일의 양을 파악하고, 항목과 중요도 별로 분류해서 기간안에 가장 효율적으로 추진될 수 있도록 업무계획을 세우고 있다. 현업과 더불어 팀 내의 심화 세미나 활동도 병행할 수 있도록 일정 조율과 관리에 큰 힘을 쏟고 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -234,9 +280,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -244,11 +296,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,305 +584,306 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="154.296875" customWidth="1"/>
-    <col min="5" max="5" width="133" customWidth="1"/>
-    <col min="6" max="7" width="5.8984375" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="56.25" customWidth="1"/>
+    <col min="5" max="5" width="114.625" customWidth="1"/>
+    <col min="6" max="6" width="74.625" customWidth="1"/>
+    <col min="7" max="7" width="5.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.95" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="49.9" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.95" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="49.9" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="88.95" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="103.5">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="103.5">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="69">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="88.95" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="69">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="69">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="103.5">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="103.05" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="61.05" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="86.25">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="49.95" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51.75">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="49.95" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="61.05" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>13</v>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
